--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v5.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FAE3E-7333-4740-AF9C-60E070335C29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B05E8CA-4763-4F98-902B-93EFA882DB81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -743,9 +743,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -757,58 +757,58 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="85.6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -817,15 +817,15 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>62</v>
@@ -834,18 +834,18 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>62</v>
@@ -854,126 +854,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:H13">
-    <sortCondition ref="B2:B13"/>
-    <sortCondition ref="C2:C13"/>
+  <sortState ref="A2:H9">
+    <sortCondition ref="B2:B9"/>
+    <sortCondition ref="C2:C9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -982,10 +875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1019,327 +912,324 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4">
         <v>43166</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43166</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="108.7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4">
-        <v>43166</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="4">
-        <v>43167</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="67.95" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="85.6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -1348,38 +1238,44 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1388,18 +1284,18 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1408,15 +1304,15 @@
         <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>61</v>
@@ -1424,22 +1320,19 @@
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="171.2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1448,84 +1341,91 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="4">
+        <v>43167</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="147.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
+      <c r="F23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -1534,33 +1434,136 @@
         <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>82</v>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H32">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v5.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B05E8CA-4763-4F98-902B-93EFA882DB81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A70FAB0-E48A-4ED0-BED0-65A86D59D866}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -763,12 +763,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -780,15 +780,15 @@
         <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="85.6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -797,15 +797,15 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>62</v>
@@ -814,18 +814,18 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>62</v>
@@ -837,36 +837,16 @@
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H9">
-    <sortCondition ref="B2:B9"/>
-    <sortCondition ref="C2:C9"/>
+  <sortState ref="A2:H8">
+    <sortCondition ref="B2:B8"/>
+    <sortCondition ref="C2:C8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -875,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1560,6 +1540,26 @@
         <v>86</v>
       </c>
     </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:H32">
     <sortCondition ref="A1"/>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v5.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A70FAB0-E48A-4ED0-BED0-65A86D59D866}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B9A18-0A75-49AB-B33F-42A512C33499}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="91">
   <si>
     <t>Priority</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>The value correscpoding to label 10039 (Item Code (Source)) is incorrect it should be mapped (ignore the [1] in the xpath)  /document/component[1]/structuredBody[1]/component[1]/section[1]/subject[1]/manufacturedProduct[1]/manufacturedProduct[1] for the applicable product where codeSystem="2.16.840.1.113883.2.20.6.55, insert MPID: before the value, then use displayName (code)</t>
+  </si>
+  <si>
+    <t>File Restructure</t>
+  </si>
+  <si>
+    <t>Rename the entry points to be hpfb-&lt;doctype&gt;.??? Where the &lt;doctype&gt; is either cpid or spm. Move the Product Description Table and the Organization Table to the shared library in the SPL directory.  Look at moving all section rendering aspects to shared libraries (generally everything that is not unique should be in the shared library</t>
+  </si>
+  <si>
+    <t>The Product Information - &gt; Product Type is showing the code value (1) not the diplay label (Pharmaceutical)</t>
   </si>
 </sst>
 </file>
@@ -658,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -763,12 +772,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -777,15 +786,15 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>62</v>
@@ -794,18 +803,18 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>62</v>
@@ -817,36 +826,56 @@
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H8">
-    <sortCondition ref="B2:B8"/>
-    <sortCondition ref="C2:C8"/>
+  <sortState ref="A2:H7">
+    <sortCondition ref="B2:B7"/>
+    <sortCondition ref="C2:C7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -855,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1270,9 +1299,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>61</v>
@@ -1281,18 +1310,18 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>61</v>
@@ -1300,209 +1329,209 @@
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="4">
         <v>43167</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="147.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="147.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="1" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>36</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>37</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>38</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>61</v>
@@ -1511,41 +1540,41 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>41</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -1554,15 +1583,35 @@
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>76</v>
+      <c r="F34" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H32">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:H33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v5.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726B9A18-0A75-49AB-B33F-42A512C33499}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238AF282-0A29-4FAE-AC0B-014FEA925BB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="96">
   <si>
     <t>Priority</t>
   </si>
@@ -309,6 +309,22 @@
   </si>
   <si>
     <t>The Product Information - &gt; Product Type is showing the code value (1) not the diplay label (Pharmaceutical)</t>
+  </si>
+  <si>
+    <t>The Product Information -&gt; Route Of Administration is not showing the display name from OID 2.16.840.1.113883.2.20.6.7 for all …/manufacturedProduct[1]/consumedIn[1]/substanceAdministration[1]/routeCode[1] elements</t>
+  </si>
+  <si>
+    <t>The Active Ingredient/Active Moiety -&gt; Basis Of Strength is not showing the (Substance ID: &lt;id&gt;) aspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Product Characteristics -&gt; Value is missing the originalText content, should be in the format &lt;display name&gt; (&lt;original text&gt;) example white (off-white)
+</t>
+  </si>
+  <si>
+    <t>Section Headings General</t>
+  </si>
+  <si>
+    <t>If a section has a templateId element where the root is 2.16.840.1.113883.2.20.6.55 or 2.16.840.1.113883.2.20.6.56 then add the display name and code in () after the title of the section an example would be Part III: Consumer Information (A Product (1234))</t>
   </si>
 </sst>
 </file>
@@ -667,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -754,10 +770,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -766,15 +782,15 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -783,18 +799,18 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>62</v>
@@ -806,38 +822,38 @@
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57.1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -846,18 +862,18 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -869,13 +885,53 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H7">
-    <sortCondition ref="B2:B7"/>
-    <sortCondition ref="C2:C7"/>
+  <sortState ref="A2:H6">
+    <sortCondition ref="B2:B6"/>
+    <sortCondition ref="C2:C6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -884,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1609,6 +1665,46 @@
         <v>87</v>
       </c>
     </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:H33">
     <sortCondition ref="A2:A33"/>
